--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -69,16 +69,34 @@
   </si>
   <si>
     <t>Rédaction de la pré-étude (description des blocs détaillées)</t>
+  </si>
+  <si>
+    <t>Recheche d'information sur la génération d'électicité avec un moteur DC</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Caractéistation du moteur DC RF-370A-15370</t>
+  </si>
+  <si>
+    <t>Création du projet Altium et début du schéma électrique avec dimentionnement des composants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,49 +193,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -225,6 +221,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,236 +507,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E38"/>
+  <dimension ref="B5:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="7">
         <v>44881</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="8">
         <v>8</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>44882</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="7">
         <v>44888</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="8">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>44889</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="7">
         <v>44891</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>44895</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="7">
         <v>44868</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="2">
         <v>44902</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="7">
         <v>44909</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44916</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
+        <v>44921</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44572</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\OneDrive - Education Vaud\2ndYear\PROJ\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Création du projet Altium et début du schéma électrique avec dimentionnement des composants</t>
+  </si>
+  <si>
+    <t>Dimentionnement et choix de composants et design du schéma électriques</t>
+  </si>
+  <si>
+    <t>Dimanche</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport et design du schéma électrique</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport et corrections du schéma électrique</t>
   </si>
 </sst>
 </file>
@@ -507,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E19"/>
+  <dimension ref="B5:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,16 +720,76 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14">
+        <v>44579</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44583</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14">
+        <v>44585</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D49C55-AE1D-4FAB-8A9C-CA6FC990DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,23 +522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="1"/>
+    <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -551,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -565,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -579,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -593,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -607,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -621,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -635,7 +636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -649,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -663,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -677,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -691,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -705,12 +706,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="13">
-        <v>44572</v>
+        <v>44937</v>
       </c>
       <c r="D17" s="4">
         <v>8</v>
@@ -719,12 +720,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="14">
-        <v>44579</v>
+        <v>44944</v>
       </c>
       <c r="D18" s="8">
         <v>8</v>
@@ -733,12 +734,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="13">
-        <v>44583</v>
+        <v>44948</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -747,12 +748,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="14">
-        <v>44585</v>
+        <v>44950</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
@@ -761,31 +762,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44951</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="14">
+        <v>44952</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="8"/>
       <c r="C24" s="14"/>
       <c r="D24" s="8"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D49C55-AE1D-4FAB-8A9C-CA6FC990DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -97,12 +96,15 @@
   </si>
   <si>
     <t>Rédaction du rapport et corrections du schéma électrique</t>
+  </si>
+  <si>
+    <t>Correction du rapport, création de la présentation, présentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,23 +524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="1"/>
-    <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.73046875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -552,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -566,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -580,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -594,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -608,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -622,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -636,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -650,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -664,7 +666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -678,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -692,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -706,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -720,7 +722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
@@ -734,7 +736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -748,7 +750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -762,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -776,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -790,23 +792,79 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44958</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="14"/>
       <c r="D24" s="8"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -98,7 +98,16 @@
     <t>Rédaction du rapport et corrections du schéma électrique</t>
   </si>
   <si>
-    <t>Correction du rapport, création de la présentation, présentation</t>
+    <t>Correction du rapport, création de la présentation, présentation du projet</t>
+  </si>
+  <si>
+    <t>Dessin d'une ébauche du boitier 3D</t>
+  </si>
+  <si>
+    <t>Correction des points évoqués lors de la présentation, création de footprints</t>
+  </si>
+  <si>
+    <t>Création de footprints, modification du schéma et début du placement des composants</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
   <dimension ref="B5:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,22 +816,46 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="14">
+        <v>44965</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44973</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="14">
+        <v>44979</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Création de footprints, modification du schéma et début du placement des composants</t>
+  </si>
+  <si>
+    <t>Recherche de solutions mécaniques au niveau du boitier et du PCB, début du design du PCB</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="B5:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,10 +861,18 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13">
+        <v>44986</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5674688B-BC87-4509-9483-8452AF315A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -110,13 +111,22 @@
     <t>Création de footprints, modification du schéma et début du placement des composants</t>
   </si>
   <si>
-    <t>Recherche de solutions mécaniques au niveau du boitier et du PCB, début du design du PCB</t>
+    <t>Recherche de solutions mécaniques au niveau du boitier et du PCB et placement des composants</t>
+  </si>
+  <si>
+    <t>Placement des composants</t>
+  </si>
+  <si>
+    <t>Routage du PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placement des composants et routage du PCB </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,23 +546,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="1"/>
+    <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -566,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -580,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -594,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -608,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -622,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -636,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -650,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -664,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -678,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -692,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -706,7 +716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -720,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -734,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
@@ -748,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -762,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -776,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -790,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -804,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
@@ -818,7 +828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
@@ -832,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
@@ -846,7 +856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
@@ -860,7 +870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
@@ -874,37 +884,61 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="14">
+        <v>44992</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13">
+        <v>44993</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14">
+        <v>44994</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="8"/>
       <c r="C32" s="14"/>
       <c r="D32" s="8"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5674688B-BC87-4509-9483-8452AF315A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -121,12 +120,15 @@
   </si>
   <si>
     <t xml:space="preserve">Placement des composants et routage du PCB </t>
+  </si>
+  <si>
+    <t>Routage du PCB, contrôle du PCB par Ali Zoubir et modification de la BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,23 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="1"/>
-    <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.73046875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -576,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -590,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -604,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -618,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -632,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -646,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -660,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -674,7 +676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -688,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -702,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -716,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -730,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -744,7 +746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
@@ -758,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -772,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -786,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -800,7 +802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -814,7 +816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
@@ -828,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
@@ -842,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
@@ -856,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
@@ -870,7 +872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
@@ -884,7 +886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -898,7 +900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
@@ -912,7 +914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -926,23 +928,75 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="8"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44996</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="14">
+        <v>45000</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B16158-EA09-4A76-A6E0-AC4157045F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C8992-A6BE-41A4-8D31-10DD446C25FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -33,9 +44,6 @@
     <t>Nbr période</t>
   </si>
   <si>
-    <t>Présentation des différent projets et choix</t>
-  </si>
-  <si>
     <t>Rédaction du cahier des charges (but du projet, schéma de principe, schéma bloc)</t>
   </si>
   <si>
@@ -127,6 +135,27 @@
   </si>
   <si>
     <t>Design mecanique du boitier</t>
+  </si>
+  <si>
+    <t>- (Présentation des projets et choix)</t>
+  </si>
+  <si>
+    <t>Recherche des composants non critiques (inserts, LED 5mm, ..) et modification de la BOM</t>
+  </si>
+  <si>
+    <t>Finition du design mécanique du boitier</t>
+  </si>
+  <si>
+    <t>Montage et test du PCB, configuration du MCU sur Harmony et programmation de test du MCU</t>
+  </si>
+  <si>
+    <t>Programmation de test du capteur de pressions différentielles et du module bluetooth</t>
+  </si>
+  <si>
+    <t>Programmation du driver du capteur de pressions différentielles et du module bluetooth</t>
+  </si>
+  <si>
+    <t>Programmation de test de l'IMU</t>
   </si>
 </sst>
 </file>
@@ -239,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -273,6 +302,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E39"/>
+  <dimension ref="B5:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -570,7 +600,7 @@
   <sheetData>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -579,12 +609,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>44881</v>
@@ -592,13 +622,13 @@
       <c r="D6" s="8">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
+      <c r="E6" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>44882</v>
@@ -607,12 +637,12 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7">
         <v>44888</v>
@@ -621,12 +651,12 @@
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>44889</v>
@@ -635,12 +665,12 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>44891</v>
@@ -649,12 +679,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>44895</v>
@@ -663,12 +693,12 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>44868</v>
@@ -677,12 +707,12 @@
         <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>44902</v>
@@ -691,12 +721,12 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7">
         <v>44909</v>
@@ -705,12 +735,12 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="13">
         <v>44916</v>
@@ -719,12 +749,12 @@
         <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="14">
         <v>44921</v>
@@ -733,12 +763,12 @@
         <v>4</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="13">
         <v>44937</v>
@@ -747,12 +777,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="14">
         <v>44944</v>
@@ -761,12 +791,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="13">
         <v>44948</v>
@@ -775,12 +805,12 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="14">
         <v>44950</v>
@@ -789,12 +819,12 @@
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="13">
         <v>44951</v>
@@ -803,12 +833,12 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="14">
         <v>44952</v>
@@ -817,12 +847,12 @@
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="13">
         <v>44958</v>
@@ -831,12 +861,12 @@
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="14">
         <v>44965</v>
@@ -845,12 +875,12 @@
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="13">
         <v>44973</v>
@@ -859,12 +889,12 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="14">
         <v>44979</v>
@@ -873,12 +903,12 @@
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="13">
         <v>44986</v>
@@ -887,12 +917,12 @@
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="14">
         <v>44992</v>
@@ -901,12 +931,12 @@
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="13">
         <v>44993</v>
@@ -915,12 +945,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="14">
         <v>44994</v>
@@ -929,12 +959,12 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="13">
         <v>44996</v>
@@ -943,12 +973,12 @@
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="14">
         <v>45000</v>
@@ -957,12 +987,12 @@
         <v>8</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="13">
         <v>45004</v>
@@ -971,44 +1001,140 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="8"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="14">
+        <v>45007</v>
+      </c>
+      <c r="D34" s="8">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="13">
+        <v>45014</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="8"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="14">
+        <v>44990</v>
+      </c>
+      <c r="D36" s="8">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="13">
+        <v>45027</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="8"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45028</v>
+      </c>
+      <c r="D38" s="8">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="13">
+        <v>45033</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="8"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="8"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="8"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C8992-A6BE-41A4-8D31-10DD446C25FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58590F69-5F2B-46BA-A2B0-00596A789B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -155,7 +155,13 @@
     <t>Programmation du driver du capteur de pressions différentielles et du module bluetooth</t>
   </si>
   <si>
-    <t>Programmation de test de l'IMU</t>
+    <t>Mesure et test du reset en mode turbine, amelioration du système de reset</t>
+  </si>
+  <si>
+    <t>Compréhention, test et programmation du driver de l'IMU</t>
+  </si>
+  <si>
+    <t>Debugging du driver de l'IMU et debugging des permissions Android</t>
   </si>
 </sst>
 </file>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E47"/>
+  <dimension ref="B5:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1076,65 +1082,81 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C39" s="13">
-        <v>45033</v>
+        <v>45042</v>
       </c>
       <c r="D39" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="8"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="14">
+        <v>45049</v>
+      </c>
+      <c r="D40" s="8">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13">
+        <v>45056</v>
+      </c>
+      <c r="D41" s="4">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="8"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="8"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="8"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49" s="1">
+        <f>SUM(D6:D46)</f>
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\GitHub\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58590F69-5F2B-46BA-A2B0-00596A789B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -162,12 +161,24 @@
   </si>
   <si>
     <t>Debugging du driver de l'IMU et debugging des permissions Android</t>
+  </si>
+  <si>
+    <t>Debugging du driver de l'IMU</t>
+  </si>
+  <si>
+    <t>17,05,2023</t>
+  </si>
+  <si>
+    <t>Mise en place de l'USART en FIFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de l'USART en FIFO et modification du driver du module Bluetooth </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,23 +599,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="1"/>
-    <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.73046875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
@@ -618,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
@@ -632,7 +643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -646,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -660,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -674,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -688,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -702,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -716,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -730,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
@@ -744,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -758,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -772,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -786,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -814,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
@@ -828,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -842,7 +853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -856,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -870,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
@@ -884,7 +895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -898,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
@@ -912,7 +923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
@@ -926,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>21</v>
       </c>
@@ -940,7 +951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -954,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -968,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
@@ -982,7 +993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
@@ -1122,40 +1133,64 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="4"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="13">
+        <v>45069</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="14">
+        <v>45070</v>
+      </c>
+      <c r="D44" s="8">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="13"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <f>SUM(D6:D46)</f>
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mise en place de l'USART en FIFO et modification du driver du module Bluetooth </t>
+  </si>
+  <si>
+    <t>Correction de bugs et amélioration du code</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="B5:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,10 +1179,18 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="13">
+        <v>45077</v>
+      </c>
+      <c r="D45" s="4">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
@@ -1190,7 +1201,7 @@
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <f>SUM(D6:D46)</f>
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-JOURNAL_v1.0.0.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\GitHub\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E48AD3E-2396-42EC-997F-529745743AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -176,12 +177,30 @@
   </si>
   <si>
     <t>Correction de bugs et amélioration du code</t>
+  </si>
+  <si>
+    <t>Correction de bugs et amélioration du code, recherche de documentation sur le développement d'application Android avec Bluetooth</t>
+  </si>
+  <si>
+    <t>Développement de l'application Android</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Finalisation du rapport et de la documentation</t>
+  </si>
+  <si>
+    <t>Finalisation du rapport, de la documentation et rendu</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -284,16 +309,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -302,9 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -323,6 +368,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,610 +666,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B5:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="1"/>
+    <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
         <v>44881</v>
       </c>
-      <c r="D6" s="8">
-        <v>8</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <v>44882</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
         <v>44888</v>
       </c>
-      <c r="D8" s="8">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="15">
         <v>44889</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="14">
         <v>44891</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
         <v>44895</v>
       </c>
-      <c r="D11" s="4">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="14">
         <v>44868</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15">
         <v>44902</v>
       </c>
-      <c r="D13" s="4">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14">
         <v>44909</v>
       </c>
-      <c r="D14" s="8">
-        <v>8</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11">
         <v>44916</v>
       </c>
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>44921</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="13">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11">
         <v>44937</v>
       </c>
-      <c r="D17" s="4">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="14">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12">
         <v>44944</v>
       </c>
-      <c r="D18" s="8">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>44948</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>44950</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="13">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11">
         <v>44951</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>10</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>44952</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>4</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="13">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11">
         <v>44958</v>
       </c>
-      <c r="D23" s="4">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="14">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="12">
         <v>44965</v>
       </c>
-      <c r="D24" s="8">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="6">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>44973</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="14">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12">
         <v>44979</v>
       </c>
-      <c r="D26" s="8">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="6">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="13">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11">
         <v>44986</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>6</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>44992</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>2</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="13">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11">
         <v>44993</v>
       </c>
-      <c r="D29" s="4">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="3">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <v>44994</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>2</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>44996</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>4</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="14">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="12">
         <v>45000</v>
       </c>
-      <c r="D32" s="8">
-        <v>8</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="6">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>45004</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>4</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="14">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="12">
         <v>45007</v>
       </c>
-      <c r="D34" s="8">
-        <v>8</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="6">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="13">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11">
         <v>45014</v>
       </c>
-      <c r="D35" s="4">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="14">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12">
         <v>44990</v>
       </c>
-      <c r="D36" s="8">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="6">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>45027</v>
       </c>
-      <c r="D37" s="4">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="14">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="12">
         <v>45028</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>5</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="13">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11">
         <v>45042</v>
       </c>
-      <c r="D39" s="4">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="3">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="14">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12">
         <v>45049</v>
       </c>
-      <c r="D40" s="8">
-        <v>8</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="6">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="13">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="11">
         <v>45056</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>11</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="8" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>10</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="11">
         <v>45069</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="14">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="12">
         <v>45070</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>10</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="13">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="11">
         <v>45077</v>
       </c>
-      <c r="D45" s="4">
-        <v>8</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="3">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="1">
-        <f>SUM(D6:D46)</f>
-        <v>259</v>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="12">
+        <v>45078</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="11">
+        <v>45084</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <v>45085</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="11">
+        <v>45091</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12">
+        <v>45092</v>
+      </c>
+      <c r="D50" s="6">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="17">
+        <v>45093</v>
+      </c>
+      <c r="D51" s="16">
+        <v>2</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C53" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="20">
+        <f>SUM(D6:D52)</f>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>